--- a/notebooks/Retinoblastoma_rna_sequencing_catalogue.xlsx
+++ b/notebooks/Retinoblastoma_rna_sequencing_catalogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\MEDI7281\Catalogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\GitHub\Charlotte\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEACD20-8D3C-4639-A948-B0DFC8E5FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A067A-39E4-4EB7-8DEB-D4543C4EF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{43291DF2-71E2-438F-98F3-AEDAE19E620A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43291DF2-71E2-438F-98F3-AEDAE19E620A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>Author</t>
   </si>
@@ -114,9 +114,6 @@
     <t>https://karger.com/oph/article-abstract/244/1/51/256008/RNA-Sequencing-and-Bioinformatic-Analysis-on?redirectedFrom=fulltext</t>
   </si>
   <si>
-    <t>bulk</t>
-  </si>
-  <si>
     <t>Sample type</t>
   </si>
   <si>
@@ -138,6 +135,50 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s41467-021-24781-7</t>
+  </si>
+  <si>
+    <t>Emailed UQ library to try to access full texy</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0023683722006249</t>
+  </si>
+  <si>
+    <t>murine model</t>
+  </si>
+  <si>
+    <t>4 (unsure)</t>
+  </si>
+  <si>
+    <t>Retinoblastoma tumor cell proliferation is negatively associated with an immune gene expression signature and increased immune cells</t>
+  </si>
+  <si>
+    <t>Sarver et al.</t>
+  </si>
+  <si>
+    <t>GCESS</t>
+  </si>
+  <si>
+    <t>raw fastq</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/oncology/articles/10.3389/fonc.2019.00221/full</t>
+  </si>
+  <si>
+    <t>Rajasekaran et al.</t>
+  </si>
+  <si>
+    <t>Non-coding and Coding Transcriptional Profiles Are Significantly Altered in Pediatric Retinoblastoma Tumors</t>
+  </si>
+  <si>
+    <t>bulk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 retinoblastoma
+2 control
+ </t>
+  </si>
+  <si>
+    <t>Limma</t>
   </si>
 </sst>
 </file>
@@ -200,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,10 +258,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -537,17 +574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5D13BF-A45D-43F2-ADD5-62CC7FE53734}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" customWidth="1"/>
@@ -556,7 +593,7 @@
     <col min="9" max="9" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -585,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -596,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
@@ -613,115 +650,176 @@
       <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" location="Sec9" xr:uid="{1114F2E8-245E-417C-9DEC-203F22DC5522}"/>
-    <hyperlink ref="I5" r:id="rId2" location="Sec9" xr:uid="{CF6265AD-FBEB-4049-88FC-7C4C9CDC997C}"/>
+    <hyperlink ref="I6" r:id="rId1" location="Sec9" xr:uid="{1114F2E8-245E-417C-9DEC-203F22DC5522}"/>
+    <hyperlink ref="I7" r:id="rId2" location="Sec9" xr:uid="{CF6265AD-FBEB-4049-88FC-7C4C9CDC997C}"/>
     <hyperlink ref="I2" r:id="rId3" xr:uid="{D7BEE347-8F89-4A83-A39D-2E477C1F681C}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{9B3EC560-EA58-4277-8E6E-B40E3A99901B}"/>
   </hyperlinks>
